--- a/leases/20004337425.xlsx
+++ b/leases/20004337425.xlsx
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="251">
   <si>
     <t>THE ARBOR VICTORIAN LIVING LTD</t>
   </si>
@@ -817,7 +817,7 @@
     </r>
   </si>
   <si>
-    <t>July</t>
+    <t>August</t>
   </si>
   <si>
     <t>2024</t>
@@ -826,16 +826,13 @@
     <t xml:space="preserve">and ending the </t>
   </si>
   <si>
-    <t>10</t>
+    <t>05</t>
   </si>
   <si>
     <t>th</t>
   </si>
   <si>
     <t>day of</t>
-  </si>
-  <si>
-    <t>August</t>
   </si>
   <si>
     <t>Any continuation of the tenancy at the end of a fixed term requires the written consent of the landlord.  At the end of the fixed term, the tenancy is finished, and the tenant must vacate.</t>
@@ -5190,7 +5187,7 @@
       </c>
       <c r="L140" s="46"/>
       <c r="M140" s="64" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="N140" s="59"/>
       <c r="O140" s="59"/>
@@ -5206,7 +5203,7 @@
     <row r="142" ht="15.75" customHeight="1" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A142" s="38"/>
       <c r="D142" s="66" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E142"/>
       <c r="F142"/>
@@ -5333,7 +5330,7 @@
         <v>9</v>
       </c>
       <c r="B149" s="10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C149" s="11"/>
       <c r="D149" s="11"/>
@@ -5413,7 +5410,7 @@
     <row r="151" ht="15.75" customHeight="1" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B151" s="67"/>
       <c r="D151" s="56" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E151"/>
       <c r="F151"/>
@@ -5525,10 +5522,10 @@
     <row r="154" ht="15.75" customHeight="1" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A154" s="38"/>
       <c r="E154" s="74" t="s">
+        <v>107</v>
+      </c>
+      <c r="F154" s="75" t="s">
         <v>108</v>
-      </c>
-      <c r="F154" s="75" t="s">
-        <v>109</v>
       </c>
       <c r="G154"/>
       <c r="H154"/>
@@ -5600,10 +5597,10 @@
     <row r="156" ht="15.75" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A156" s="38"/>
       <c r="E156" s="74" t="s">
+        <v>109</v>
+      </c>
+      <c r="F156" s="42" t="s">
         <v>110</v>
-      </c>
-      <c r="F156" s="42" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="157" ht="15.75" customHeight="1" spans="1:37" x14ac:dyDescent="0.25">
@@ -5611,7 +5608,7 @@
         <v>10</v>
       </c>
       <c r="B157" s="10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C157" s="11"/>
       <c r="D157" s="11"/>
@@ -5652,10 +5649,10 @@
     <row r="158" ht="12.75" customHeight="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A158" s="38"/>
       <c r="B158" s="44" t="s">
+        <v>112</v>
+      </c>
+      <c r="K158" s="77" t="s">
         <v>113</v>
-      </c>
-      <c r="K158" s="77" t="s">
-        <v>114</v>
       </c>
       <c r="L158" s="59"/>
       <c r="M158" s="59"/>
@@ -5665,11 +5662,11 @@
     <row r="159" ht="15.75" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159" s="38"/>
       <c r="B159" s="44" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D159" s="67"/>
       <c r="E159" s="44" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="160" ht="3" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -5680,7 +5677,7 @@
     <row r="161" ht="15.75" customHeight="1" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D161" s="67"/>
       <c r="E161" s="24" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="162" ht="3" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -5691,11 +5688,11 @@
     <row r="163" ht="15.75" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163" s="38"/>
       <c r="B163" s="44" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D163" s="67"/>
       <c r="E163" s="24" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="164" ht="3" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -5706,7 +5703,7 @@
     <row r="165" ht="15.75" customHeight="1" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D165" s="67"/>
       <c r="E165" s="24" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="166" ht="3.75" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -5717,7 +5714,7 @@
     <row r="167" ht="15.75" customHeight="1" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D167" s="67"/>
       <c r="E167" s="24" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="168" ht="3.75" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -5728,7 +5725,7 @@
     <row r="169" ht="15.75" customHeight="1" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D169" s="67"/>
       <c r="E169" s="24" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="170" ht="3.75" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -5739,25 +5736,25 @@
     <row r="171" ht="15.75" customHeight="1" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D171" s="67"/>
       <c r="E171" s="24" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="172" ht="12.75" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172" s="38"/>
       <c r="B172" s="44" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="173" ht="12.75" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A173" s="38"/>
       <c r="B173" s="44" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="174" ht="12.75" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A174" s="38"/>
       <c r="B174" s="44" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="175" ht="15.75" customHeight="1" spans="1:37" x14ac:dyDescent="0.25">
@@ -5765,7 +5762,7 @@
         <v>11</v>
       </c>
       <c r="B175" s="10" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C175" s="11"/>
       <c r="D175" s="11"/>
@@ -5806,39 +5803,39 @@
     <row r="176" ht="12.75" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A176" s="38"/>
       <c r="B176" s="44" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="177" ht="12.75" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A177" s="38"/>
       <c r="B177" s="44" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="178" ht="12.75" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A178" s="38"/>
       <c r="B178" s="44" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="179" ht="12.75" customHeight="1" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B179" s="40" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="180" ht="12.75" customHeight="1" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B180" s="40" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="181" ht="12.75" customHeight="1" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B181" s="40" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="182" ht="13.5" customHeight="1" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A182" s="66" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B182"/>
       <c r="C182"/>
@@ -5996,7 +5993,7 @@
     </row>
     <row r="186" ht="12.75" customHeight="1" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A186" s="66" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B186"/>
       <c r="C186"/>
@@ -6118,7 +6115,7 @@
         <v>12</v>
       </c>
       <c r="B189" s="10" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C189" s="11"/>
       <c r="D189" s="11"/>
@@ -6159,18 +6156,18 @@
     <row r="190" ht="12.75" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A190" s="38"/>
       <c r="B190" s="24" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="191" ht="12.75" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A191" s="38"/>
       <c r="B191" s="24" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="192" ht="3.75" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A192" s="38" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B192" s="44"/>
       <c r="E192" s="44"/>
@@ -6178,7 +6175,7 @@
     <row r="193" ht="13.5" customHeight="1" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A193" s="38"/>
       <c r="B193" s="56" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C193"/>
       <c r="D193"/>
@@ -6299,7 +6296,7 @@
         <v>13</v>
       </c>
       <c r="B196" s="10" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C196" s="11"/>
       <c r="D196" s="11"/>
@@ -6340,18 +6337,18 @@
     <row r="197" ht="12.75" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A197" s="38"/>
       <c r="B197" s="44" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="198" ht="15.75" customHeight="1" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B198" s="79" t="s">
+        <v>142</v>
+      </c>
+      <c r="I198" s="79" t="s">
         <v>143</v>
       </c>
-      <c r="I198" s="79" t="s">
+      <c r="S198" s="79" t="s">
         <v>144</v>
-      </c>
-      <c r="S198" s="79" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="199" ht="3.75" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -6363,15 +6360,15 @@
       <c r="A200" s="38"/>
       <c r="B200" s="67"/>
       <c r="C200" s="40" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="I200" s="67"/>
       <c r="J200" s="24" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="S200" s="67"/>
       <c r="T200" s="24" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AA200" s="80"/>
       <c r="AB200" s="80"/>
@@ -6394,15 +6391,15 @@
       <c r="A202" s="38"/>
       <c r="B202" s="67"/>
       <c r="C202" s="40" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I202" s="67"/>
       <c r="J202" s="24" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="S202" s="67"/>
       <c r="T202" s="24" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AA202" s="80"/>
       <c r="AB202" s="80"/>
@@ -6425,15 +6422,15 @@
       <c r="A204" s="38"/>
       <c r="B204" s="67"/>
       <c r="C204" s="40" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="I204" s="67"/>
       <c r="J204" s="24" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="S204" s="67"/>
       <c r="T204" s="24" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AA204" s="80"/>
       <c r="AB204" s="80"/>
@@ -6456,12 +6453,12 @@
       <c r="A206" s="38"/>
       <c r="B206" s="67"/>
       <c r="C206" s="40" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F206" s="40"/>
       <c r="I206" s="67"/>
       <c r="J206" s="24" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="T206" s="24"/>
     </row>
@@ -6474,7 +6471,7 @@
       <c r="A208" s="38"/>
       <c r="B208" s="67"/>
       <c r="C208" s="24" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G208" s="24"/>
       <c r="J208" s="24"/>
@@ -6487,7 +6484,7 @@
     </row>
     <row r="210" ht="12" customHeight="1" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B210" s="66" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C210"/>
       <c r="D210"/>
@@ -6567,7 +6564,7 @@
     <row r="212" ht="12.75" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A212" s="38"/>
       <c r="B212" s="44" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="213" ht="3.75" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
@@ -6598,7 +6595,7 @@
     <row r="216" ht="15.75" customHeight="1" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C216" s="67"/>
       <c r="D216" s="24" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="217" ht="3.75" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -6609,7 +6606,7 @@
     <row r="218" ht="15.75" customHeight="1" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C218" s="67"/>
       <c r="D218" s="24" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="219" ht="3.75" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -6620,7 +6617,7 @@
     <row r="220" ht="15.75" customHeight="1" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C220" s="67"/>
       <c r="D220" s="24" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="221" ht="3.75" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -6631,7 +6628,7 @@
     <row r="222" ht="15.75" customHeight="1" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C222" s="67"/>
       <c r="D222" s="24" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="223" ht="3.75" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -6642,7 +6639,7 @@
     <row r="224" ht="15.75" customHeight="1" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C224" s="67"/>
       <c r="D224" s="24" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="225" ht="3.75" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -6653,7 +6650,7 @@
     <row r="226" ht="15.75" customHeight="1" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C226" s="67"/>
       <c r="D226" s="24" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="227" ht="3.75" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -6664,7 +6661,7 @@
     <row r="228" ht="15.75" customHeight="1" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C228" s="67"/>
       <c r="D228" s="24" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="229" ht="3.75" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -6675,13 +6672,13 @@
     <row r="230" ht="15.75" customHeight="1" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C230" s="67"/>
       <c r="D230" s="24" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="231" ht="12.75" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A231" s="38"/>
       <c r="D231" s="24" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="232" ht="3.75" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -6692,13 +6689,13 @@
     <row r="233" ht="15.75" customHeight="1" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C233" s="67"/>
       <c r="D233" s="24" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="234" ht="12" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A234" s="38"/>
       <c r="D234" s="24" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="235" ht="12" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -6710,7 +6707,7 @@
         <v>14</v>
       </c>
       <c r="B236" s="10" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C236" s="11"/>
       <c r="D236" s="11"/>
@@ -6762,7 +6759,7 @@
         <v>15</v>
       </c>
       <c r="B240" s="10" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C240" s="11"/>
       <c r="D240" s="11"/>
@@ -6807,7 +6804,7 @@
       <c r="A242" s="38"/>
       <c r="C242" s="67"/>
       <c r="D242" s="24" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="243" ht="6" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
@@ -6815,7 +6812,7 @@
     </row>
     <row r="244" ht="15.75" customHeight="1" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B244" s="27" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="245" ht="5.25" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
@@ -6824,20 +6821,20 @@
     <row r="246" ht="15.75" customHeight="1" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C246" s="67"/>
       <c r="D246" s="44" t="s">
+        <v>174</v>
+      </c>
+      <c r="K246" s="77" t="s">
         <v>175</v>
-      </c>
-      <c r="K246" s="77" t="s">
-        <v>176</v>
       </c>
       <c r="L246" s="59"/>
       <c r="M246" s="59"/>
       <c r="N246" s="42" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="247" ht="14.25" customHeight="1" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A247" s="66" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B247"/>
       <c r="C247"/>
@@ -6998,7 +6995,7 @@
         <v>16</v>
       </c>
       <c r="B251" s="10" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C251" s="11"/>
       <c r="D251" s="11"/>
@@ -7042,7 +7039,7 @@
     <row r="253" ht="14.25" customHeight="1" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A253" s="38"/>
       <c r="B253" s="66" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C253"/>
       <c r="D253"/>
@@ -7161,7 +7158,7 @@
     <row r="256" ht="15.75" customHeight="1" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C256" s="67"/>
       <c r="D256" s="24" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="257" ht="3.75" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
@@ -7170,7 +7167,7 @@
     <row r="258" ht="15.75" customHeight="1" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C258" s="67"/>
       <c r="D258" s="24" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="259" ht="3.75" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
@@ -7181,7 +7178,7 @@
         <v>17</v>
       </c>
       <c r="B260" s="10" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C260" s="11"/>
       <c r="D260" s="11"/>
@@ -7225,7 +7222,7 @@
     <row r="262" ht="15.75" customHeight="1" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A262" s="38"/>
       <c r="B262" s="66" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C262"/>
       <c r="D262"/>
@@ -7307,11 +7304,11 @@
     </row>
     <row r="265" ht="15.75" customHeight="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A265" s="27" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="R265" s="67"/>
       <c r="S265" s="24" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="266" ht="6" customHeight="1" spans="1:19" x14ac:dyDescent="0.25">
@@ -7321,10 +7318,10 @@
     <row r="267" ht="15.75" customHeight="1" spans="18:22" x14ac:dyDescent="0.25">
       <c r="R267" s="67"/>
       <c r="S267" s="24" t="s">
+        <v>186</v>
+      </c>
+      <c r="V267" s="42" t="s">
         <v>187</v>
-      </c>
-      <c r="V267" s="42" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="268" ht="3.75" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
@@ -7332,10 +7329,10 @@
     </row>
     <row r="269" ht="15.75" customHeight="1" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A269" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="B269" s="10" t="s">
         <v>189</v>
-      </c>
-      <c r="B269" s="10" t="s">
-        <v>190</v>
       </c>
       <c r="C269" s="11"/>
       <c r="D269" s="11"/>
@@ -7379,7 +7376,7 @@
     <row r="271" ht="15.75" customHeight="1" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A271" s="38"/>
       <c r="B271" s="56" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C271"/>
       <c r="D271"/>
@@ -7529,7 +7526,7 @@
     <row r="277" ht="15.75" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A277" s="38"/>
       <c r="B277" s="24" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="278" ht="3.75" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
@@ -7540,7 +7537,7 @@
         <v>18</v>
       </c>
       <c r="B279" s="10" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C279" s="11"/>
       <c r="D279" s="11"/>
@@ -7584,7 +7581,7 @@
     <row r="281" ht="15.75" customHeight="1" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A281" s="86"/>
       <c r="B281" s="56" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C281"/>
       <c r="D281"/>
@@ -7667,7 +7664,7 @@
     <row r="284" ht="15.75" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A284" s="38"/>
       <c r="B284" s="24" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="285" ht="3.75" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
@@ -7675,10 +7672,10 @@
     </row>
     <row r="286" ht="15.75" customHeight="1" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B286" s="24" t="s">
+        <v>194</v>
+      </c>
+      <c r="D286" s="56" t="s">
         <v>195</v>
-      </c>
-      <c r="D286" s="56" t="s">
-        <v>196</v>
       </c>
       <c r="E286"/>
       <c r="F286"/>
@@ -7756,10 +7753,10 @@
     </row>
     <row r="289" ht="15.75" customHeight="1" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B289" s="24" t="s">
+        <v>196</v>
+      </c>
+      <c r="D289" s="24" t="s">
         <v>197</v>
-      </c>
-      <c r="D289" s="24" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="290" ht="3.75" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
@@ -7768,7 +7765,7 @@
     <row r="291" ht="14.25" customHeight="1" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A291" s="38"/>
       <c r="B291" s="56" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C291"/>
       <c r="D291"/>
@@ -7890,7 +7887,7 @@
     <row r="295" ht="15.75" customHeight="1" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A295" s="38"/>
       <c r="B295" s="56" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C295"/>
       <c r="D295"/>
@@ -7975,7 +7972,7 @@
         <v>19</v>
       </c>
       <c r="B298" s="10" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C298" s="11"/>
       <c r="D298" s="11"/>
@@ -8019,13 +8016,13 @@
     <row r="300" ht="15.75" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A300" s="38"/>
       <c r="B300" s="24" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="301" ht="15.75" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A301" s="38"/>
       <c r="B301" s="24" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="302" ht="3.75" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
@@ -8034,10 +8031,10 @@
     <row r="303" ht="15.75" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A303" s="38"/>
       <c r="B303" s="44" t="s">
+        <v>203</v>
+      </c>
+      <c r="N303" s="44" t="s">
         <v>204</v>
-      </c>
-      <c r="N303" s="44" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="304" ht="15.75" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
@@ -8047,16 +8044,16 @@
       <c r="A305" s="38"/>
       <c r="B305" s="67"/>
       <c r="C305" s="24" t="s">
+        <v>205</v>
+      </c>
+      <c r="N305" s="24" t="s">
         <v>206</v>
-      </c>
-      <c r="N305" s="24" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="306" ht="15.75" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A306" s="38"/>
       <c r="N306" s="24" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="307" ht="3.75" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -8067,10 +8064,10 @@
       <c r="A308" s="38"/>
       <c r="B308" s="67"/>
       <c r="C308" s="24" t="s">
+        <v>208</v>
+      </c>
+      <c r="N308" s="24" t="s">
         <v>209</v>
-      </c>
-      <c r="N308" s="24" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="309" ht="3.75" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -8082,10 +8079,10 @@
       <c r="A310" s="38"/>
       <c r="B310" s="67"/>
       <c r="C310" s="24" t="s">
+        <v>210</v>
+      </c>
+      <c r="N310" s="24" t="s">
         <v>211</v>
-      </c>
-      <c r="N310" s="24" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="311" ht="3.75" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -8097,10 +8094,10 @@
       <c r="A312" s="38"/>
       <c r="B312" s="67"/>
       <c r="C312" s="24" t="s">
+        <v>212</v>
+      </c>
+      <c r="N312" s="24" t="s">
         <v>213</v>
-      </c>
-      <c r="N312" s="24" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="313" ht="3.75" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
@@ -8111,7 +8108,7 @@
         <v>20</v>
       </c>
       <c r="B314" s="10" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C314" s="11"/>
       <c r="D314" s="11"/>
@@ -8155,7 +8152,7 @@
     <row r="316" ht="15.75" customHeight="1" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A316" s="38"/>
       <c r="B316" s="56" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C316"/>
       <c r="D316"/>
@@ -8240,7 +8237,7 @@
         <v>21</v>
       </c>
       <c r="B319" s="10" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C319" s="11"/>
       <c r="D319" s="11"/>
@@ -8284,7 +8281,7 @@
     <row r="321" ht="15.75" customHeight="1" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A321" s="38"/>
       <c r="B321" s="56" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C321"/>
       <c r="D321"/>
@@ -8405,7 +8402,7 @@
         <v>22</v>
       </c>
       <c r="B324" s="10" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C324" s="11"/>
       <c r="D324" s="11"/>
@@ -8449,7 +8446,7 @@
     <row r="326" ht="15.75" customHeight="1" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A326" s="38"/>
       <c r="B326" s="66" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C326"/>
       <c r="D326"/>
@@ -8532,7 +8529,7 @@
     <row r="329" ht="15.75" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A329" s="38"/>
       <c r="B329" s="44" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="330" ht="3.75" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
@@ -8541,10 +8538,10 @@
     <row r="331" ht="15.75" customHeight="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A331" s="38"/>
       <c r="B331" s="88" t="s">
+        <v>221</v>
+      </c>
+      <c r="C331" s="24" t="s">
         <v>222</v>
-      </c>
-      <c r="C331" s="24" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="332" ht="3.75" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
@@ -8555,7 +8552,7 @@
       <c r="C333" s="12"/>
       <c r="E333" s="67"/>
       <c r="F333" s="24" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="334" ht="3.75" customHeight="1" spans="2:6" x14ac:dyDescent="0.25">
@@ -8566,7 +8563,7 @@
     <row r="335" ht="15.75" customHeight="1" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E335" s="67"/>
       <c r="F335" s="24" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="336" ht="3.75" customHeight="1" spans="6:6" x14ac:dyDescent="0.25">
@@ -8575,14 +8572,14 @@
     <row r="337" ht="15.75" customHeight="1" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E337" s="67"/>
       <c r="F337" s="24" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="338" ht="3.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="339" ht="15.75" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A339" s="38"/>
       <c r="B339" s="89" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="340" ht="3.75" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -8592,7 +8589,7 @@
     <row r="341" ht="15.75" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A341" s="38"/>
       <c r="B341" s="89" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="342" ht="3.75" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
@@ -8600,7 +8597,7 @@
     </row>
     <row r="343" ht="15.75" customHeight="1" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B343" s="24" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="344" ht="3.75" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
@@ -8608,22 +8605,22 @@
     </row>
     <row r="345" ht="15.75" customHeight="1" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C345" s="24" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="346" ht="15.75" customHeight="1" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C346" s="40" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="347" ht="15.75" customHeight="1" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C347" s="40" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="348" ht="15.75" customHeight="1" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C348" s="40" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="349" ht="15.75" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
@@ -8632,7 +8629,7 @@
     <row r="350" ht="14.25" customHeight="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A350" s="40"/>
       <c r="B350" s="88" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C350" s="81"/>
       <c r="D350" s="12"/>
@@ -8679,7 +8676,7 @@
     </row>
     <row r="352" ht="15.75" customHeight="1" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C352" s="56" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D352"/>
       <c r="E352"/>
@@ -8750,7 +8747,7 @@
     <row r="355" ht="15.75" customHeight="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A355" s="38"/>
       <c r="B355" s="88" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C355" s="81"/>
       <c r="D355" s="12"/>
@@ -8778,7 +8775,7 @@
       <c r="A357" s="40"/>
       <c r="B357" s="24"/>
       <c r="C357" s="92" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D357"/>
       <c r="E357"/>
@@ -8837,7 +8834,7 @@
     <row r="360" ht="15.75" customHeight="1" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A360" s="93"/>
       <c r="B360" s="94" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C360" s="95"/>
       <c r="D360" s="95"/>
@@ -8890,7 +8887,7 @@
     <row r="362" ht="15.75" customHeight="1" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A362" s="100"/>
       <c r="B362" s="101" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C362"/>
       <c r="D362"/>
@@ -8970,7 +8967,7 @@
     <row r="364" ht="15.75" customHeight="1" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A364" s="103"/>
       <c r="B364" s="104" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="AC364" s="99"/>
       <c r="AD364" s="61"/>
@@ -8985,7 +8982,7 @@
     <row r="365" ht="15.75" customHeight="1" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A365" s="103"/>
       <c r="B365" s="105" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C365"/>
       <c r="D365"/>
@@ -9065,7 +9062,7 @@
     <row r="367" ht="15.75" customHeight="1" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A367" s="103"/>
       <c r="B367" s="106" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C367"/>
       <c r="D367"/>
@@ -9145,7 +9142,7 @@
     <row r="369" ht="15.75" customHeight="1" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A369" s="103"/>
       <c r="B369" s="106" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C369"/>
       <c r="D369"/>
@@ -9225,7 +9222,7 @@
     <row r="371" ht="15.75" customHeight="1" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A371" s="103"/>
       <c r="B371" s="106" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C371"/>
       <c r="D371"/>
@@ -9305,7 +9302,7 @@
     <row r="373" ht="15.75" customHeight="1" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A373" s="100"/>
       <c r="B373" s="101" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C373"/>
       <c r="D373"/>
@@ -9428,7 +9425,7 @@
       <c r="A377" s="38"/>
       <c r="B377" s="97"/>
       <c r="C377" s="112" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="378" ht="15.75" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
@@ -9437,10 +9434,10 @@
     <row r="379" ht="15.75" customHeight="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A379" s="38"/>
       <c r="B379" s="112" t="s">
+        <v>246</v>
+      </c>
+      <c r="R379" s="112" t="s">
         <v>247</v>
-      </c>
-      <c r="R379" s="112" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="380" ht="15.75" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
@@ -9449,7 +9446,7 @@
     <row r="381" ht="15.75" customHeight="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A381" s="38"/>
       <c r="B381" s="113" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="R381" s="80"/>
       <c r="S381" s="80"/>
@@ -9468,7 +9465,7 @@
     <row r="383" ht="15.75" customHeight="1" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A383" s="38"/>
       <c r="B383" s="101" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C383"/>
       <c r="D383"/>
@@ -9551,10 +9548,10 @@
     <row r="386" ht="15.75" customHeight="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A386" s="111"/>
       <c r="B386" s="112" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="R386" s="112" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="387" ht="15.75" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -9568,7 +9565,7 @@
     <row r="389" ht="15.75" customHeight="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A389" s="38"/>
       <c r="B389" s="113" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="R389" s="80"/>
       <c r="S389" s="80"/>
@@ -9593,7 +9590,7 @@
     <row r="392" ht="15.75" customHeight="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A392" s="38"/>
       <c r="B392" s="113" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="R392" s="80"/>
       <c r="S392" s="80"/>
@@ -9618,7 +9615,7 @@
     <row r="395" ht="15.75" customHeight="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A395" s="38"/>
       <c r="B395" s="113" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="R395" s="80"/>
       <c r="S395" s="80"/>
@@ -9643,7 +9640,7 @@
     <row r="398" ht="15.75" customHeight="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A398" s="38"/>
       <c r="B398" s="113" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="R398" s="80"/>
       <c r="S398" s="80"/>
@@ -9666,7 +9663,7 @@
     <row r="401" ht="15.75" customHeight="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A401" s="38"/>
       <c r="B401" s="113" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="R401" s="80"/>
       <c r="S401" s="80"/>
@@ -9689,7 +9686,7 @@
     <row r="404" ht="15.75" customHeight="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A404" s="38"/>
       <c r="B404" s="113" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="R404" s="80"/>
       <c r="S404" s="80"/>
@@ -9712,7 +9709,7 @@
     <row r="407" ht="15.75" customHeight="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A407" s="38"/>
       <c r="B407" s="113" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="R407" s="80"/>
       <c r="S407" s="80"/>
@@ -9735,7 +9732,7 @@
     <row r="410" ht="15.75" customHeight="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A410" s="38"/>
       <c r="B410" s="113" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="R410" s="80"/>
       <c r="S410" s="80"/>
